--- a/Bowling_final.xlsx
+++ b/Bowling_final.xlsx
@@ -382,12 +382,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_coed</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Bowling-Coed</t>
+          <t>Bowling</t>
         </is>
       </c>
     </row>
